--- a/dist/data/data.xlsx
+++ b/dist/data/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\quiz-app\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962E5CD4-FDA3-4B4B-87A2-0A7AD1B97B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A4199-F32A-456E-B211-EF907AC08631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4272" windowWidth="7968" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Debug Questions" sheetId="1" r:id="rId1"/>
-    <sheet name="Tutorial Quiz" sheetId="4" r:id="rId2"/>
-    <sheet name="Science Quiz" sheetId="3" r:id="rId3"/>
+    <sheet name="Science Quiz" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>Question</t>
   </si>
@@ -78,24 +77,6 @@
     <t>How?</t>
   </si>
   <si>
-    <t>Should?</t>
-  </si>
-  <si>
-    <t>Could?</t>
-  </si>
-  <si>
-    <t>Maybe?</t>
-  </si>
-  <si>
-    <t>Yes?</t>
-  </si>
-  <si>
-    <t>No?</t>
-  </si>
-  <si>
-    <t>Absolutely?</t>
-  </si>
-  <si>
     <t>In the 1500s, Leonardo da Vinci invented a cart that followed a set path.</t>
   </si>
   <si>
@@ -237,28 +218,16 @@
     <t>Background Image</t>
   </si>
   <si>
-    <t>https://thispersondoesnotexist.com/image</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2019/05/18/13/34/twigs-4211837__480.jpg</t>
-  </si>
-  <si>
-    <t>What is 1+1</t>
-  </si>
-  <si>
-    <t>add them together</t>
-  </si>
-  <si>
-    <t>What is 1+2</t>
-  </si>
-  <si>
-    <t>What is 1+3</t>
-  </si>
-  <si>
-    <t>What is 1+4</t>
-  </si>
-  <si>
-    <t>What is 1+5</t>
+    <t>A, B, or C?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -268,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,12 +255,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -688,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -750,11 +713,11 @@
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1, COUNTA(B2:E2))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G13" ca="1" si="0">F2</f>
-        <v>1</v>
+        <f t="shared" ref="G2:G7" ca="1" si="0">F2</f>
+        <v>4</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -775,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" ca="1" si="1">RANDBETWEEN(1, COUNTA(B3:E3))</f>
+        <f t="shared" ref="F3:F8" ca="1" si="1">RANDBETWEEN(1, COUNTA(B3:E3))</f>
         <v>2</v>
       </c>
       <c r="G3">
@@ -876,179 +839,128 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="F9:F10" ca="1" si="2">RANDBETWEEN(1, COUNTA(B9:E9))</f>
+        <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="F11" ca="1" si="3">RANDBETWEEN(1, COUNTA(B11:E11))</f>
+        <v>3</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ref="F12:F13" ca="1" si="4">RANDBETWEEN(1, COUNTA(B12:E12))</f>
+        <v>2</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1058,213 +970,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA14B4B-C30D-4093-A0E5-6F87E2304465}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="64.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F48D06-45C7-4F1D-A65F-A94638A50CA9}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,7 +987,9 @@
     <col min="5" max="5" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="64.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="20" style="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="20" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1302,194 +1015,194 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
